--- a/biology/Botanique/Polystachya_retusiloba/Polystachya_retusiloba.xlsx
+++ b/biology/Botanique/Polystachya_retusiloba/Polystachya_retusiloba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya retusiloba Summerh. est une espèce d'Orchidées du genre Polystachya, observée au Cameroun, en République démocratique du Congo et au Rwanda. Sur la liste rouge de l'UICN, elle apparaît comme une plante menacée (EN)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya retusiloba Summerh. est une espèce d'Orchidées du genre Polystachya, observée au Cameroun, en République démocratique du Congo et au Rwanda. Sur la liste rouge de l'UICN, elle apparaît comme une plante menacée (EN).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Cameroun des spécimens ont été collectés à Bakong dans la région de l'Ouest, à Nyombé dans celle du Littoral. D'autres ont été prélevés en République démocratique du Congo et au Rwanda[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Cameroun des spécimens ont été collectés à Bakong dans la région de l'Ouest, à Nyombé dans celle du Littoral. D'autres ont été prélevés en République démocratique du Congo et au Rwanda.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante épiphyte présente dans les forêts submontagnardes et montagnardes et les forêts-galeries rocheuses, à des altitudes allant de 250 à 1 500-2 300 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante épiphyte présente dans les forêts submontagnardes et montagnardes et les forêts-galeries rocheuses, à des altitudes allant de 250 à 1 500-2 300 m.
 </t>
         </is>
       </c>
